--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_12_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_12_30.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2243691.907468581</v>
+        <v>2350921.348866668</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12502432.03437992</v>
+        <v>12383593.4843585</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.105228319</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9465002.728520539</v>
+        <v>9478451.173900183</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>189.7185254440884</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>299.6368922699749</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,19 +712,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -756,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -820,16 +822,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.82991704137373</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>125.1501590736901</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -908,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>250.4301205060157</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>59.48550737293719</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T6" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U6" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1051,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>25.32666403843657</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>96.62196236053757</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>186.6104237124443</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>26.46499605531635</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>82.74510140059141</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>174.3107592997144</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1357,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695616</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>8.579726596858459</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>63.841556412593</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1765,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,13 +1776,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>39.52129633183119</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -1813,13 +1815,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>105.6507867899569</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1895,7 +1897,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2002,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E19" t="n">
-        <v>101.9154861872836</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2068,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2147,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="21">
@@ -2245,19 +2247,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2296,13 +2298,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>145.6718493954792</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2476,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2488,7 +2490,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2533,13 +2535,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>100.5140508960364</v>
+        <v>64.40601307691377</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695527</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,10 +2715,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>66.12869588327256</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>37.1993334282287</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2761,7 +2763,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2770,13 +2772,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2795,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2953,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,10 +3003,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3013,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>150.3341561773493</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3038,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3196,16 +3198,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>94.91529601901398</v>
+        <v>181.3074675142866</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3442,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>78.14939830226119</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>35.66650366117342</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3667,7 +3669,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>32.26041896250234</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3718,10 +3720,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>244.655117794415</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3746,7 +3748,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3755,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3904,19 +3906,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>41.16673120696609</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3955,7 +3957,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>135.3135037226517</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4201,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1524.365833927799</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="C2" t="n">
-        <v>1155.403316987388</v>
+        <v>1992.424186004858</v>
       </c>
       <c r="D2" t="n">
-        <v>1155.403316987388</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="E2" t="n">
-        <v>769.6150643891435</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F2" t="n">
-        <v>466.9515368437143</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4358,22 +4360,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>2228.89447953245</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V2" t="n">
-        <v>1897.831592188879</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="W2" t="n">
-        <v>1897.831592188879</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="X2" t="n">
-        <v>1524.365833927799</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="Y2" t="n">
-        <v>1524.365833927799</v>
+        <v>2184.059060190806</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
@@ -4407,28 +4409,28 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M3" t="n">
-        <v>1227.201367341571</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N3" t="n">
-        <v>1861.38035112061</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O3" t="n">
-        <v>2193.450786296771</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>370.2996089082458</v>
+        <v>682.9724752679349</v>
       </c>
       <c r="C4" t="n">
-        <v>201.3634259803388</v>
+        <v>514.036292340028</v>
       </c>
       <c r="D4" t="n">
-        <v>51.24678656800311</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E4" t="n">
-        <v>51.24678656800311</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F4" t="n">
-        <v>51.24678656800311</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
         <v>51.24678656800311</v>
@@ -4486,52 +4488,52 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1546.718931143816</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1546.718931143816</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T4" t="n">
-        <v>1323.740450338552</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="U4" t="n">
-        <v>1034.62211284239</v>
+        <v>1313.403070139722</v>
       </c>
       <c r="V4" t="n">
-        <v>779.9376246365028</v>
+        <v>1313.403070139722</v>
       </c>
       <c r="W4" t="n">
-        <v>779.9376246365028</v>
+        <v>1313.403070139722</v>
       </c>
       <c r="X4" t="n">
-        <v>551.9480737384855</v>
+        <v>1085.413519241705</v>
       </c>
       <c r="Y4" t="n">
-        <v>551.9480737384855</v>
+        <v>864.6209400981746</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1896.503151925172</v>
+        <v>2051.040280862503</v>
       </c>
       <c r="C5" t="n">
-        <v>1527.540634984761</v>
+        <v>1682.077763922091</v>
       </c>
       <c r="D5" t="n">
-        <v>1169.27493637801</v>
+        <v>1323.812065315341</v>
       </c>
       <c r="E5" t="n">
-        <v>783.4866837797658</v>
+        <v>938.0238127170967</v>
       </c>
       <c r="F5" t="n">
-        <v>372.5007789901583</v>
+        <v>527.0379079274892</v>
       </c>
       <c r="G5" t="n">
-        <v>361.4687328755588</v>
+        <v>111.333157651778</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>111.333157651778</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520488</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520488</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="W5" t="n">
-        <v>2656.568750250374</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="X5" t="n">
-        <v>2283.102991989294</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="Y5" t="n">
-        <v>2283.102991989294</v>
+        <v>2437.640120926625</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>590.2049751143495</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>884.9085321458213</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>678.6720730524786</v>
+        <v>648.2725968131173</v>
       </c>
       <c r="C7" t="n">
-        <v>509.7358901245717</v>
+        <v>479.3364138852104</v>
       </c>
       <c r="D7" t="n">
-        <v>359.619250712236</v>
+        <v>479.3364138852104</v>
       </c>
       <c r="E7" t="n">
-        <v>359.619250712236</v>
+        <v>331.4233203028173</v>
       </c>
       <c r="F7" t="n">
-        <v>212.7293032143256</v>
+        <v>331.4233203028173</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1739.8661490677</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1450.763282193343</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V7" t="n">
-        <v>1196.078793987456</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="W7" t="n">
-        <v>906.6616239504959</v>
+        <v>1057.910612541374</v>
       </c>
       <c r="X7" t="n">
-        <v>678.6720730524786</v>
+        <v>829.921061643357</v>
       </c>
       <c r="Y7" t="n">
-        <v>678.6720730524786</v>
+        <v>829.921061643357</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1678.62132134232</v>
+        <v>1671.539306344596</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>1302.576789404184</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329463</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296684</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609169</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136264</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>3026.819775648947</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>2773.289298922783</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V8" t="n">
-        <v>2442.226411579212</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="W8" t="n">
-        <v>2442.226411579212</v>
+        <v>2084.871465656512</v>
       </c>
       <c r="X8" t="n">
-        <v>2068.760653318132</v>
+        <v>2084.871465656512</v>
       </c>
       <c r="Y8" t="n">
-        <v>1678.62132134232</v>
+        <v>2058.139146408717</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>797.4834000772721</v>
+        <v>283.5665952101448</v>
       </c>
       <c r="C10" t="n">
-        <v>628.5472171493652</v>
+        <v>283.5665952101448</v>
       </c>
       <c r="D10" t="n">
-        <v>478.4305777370295</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="E10" t="n">
-        <v>478.4305777370295</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088492</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088492</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T10" t="n">
-        <v>1751.223074048377</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U10" t="n">
-        <v>1751.223074048377</v>
+        <v>1021.765895288653</v>
       </c>
       <c r="V10" t="n">
-        <v>1496.53858584249</v>
+        <v>1021.765895288653</v>
       </c>
       <c r="W10" t="n">
-        <v>1207.121415805529</v>
+        <v>732.3487252516923</v>
       </c>
       <c r="X10" t="n">
-        <v>979.1318649075118</v>
+        <v>504.3591743536749</v>
       </c>
       <c r="Y10" t="n">
-        <v>979.1318649075118</v>
+        <v>283.5665952101448</v>
       </c>
     </row>
     <row r="11">
@@ -5027,37 +5029,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5066,10 +5068,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5124,13 +5126,13 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
         <v>1896.176478190825</v>
@@ -5173,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>878.3568999154069</v>
+        <v>699.2677182139842</v>
       </c>
       <c r="C13" t="n">
-        <v>709.4207169875</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="D13" t="n">
-        <v>559.3040775751642</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E13" t="n">
-        <v>411.3909839927711</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
@@ -5221,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2382.47666296148</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>2162.875197984421</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199802</v>
+        <v>1873.799971328619</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993915</v>
+        <v>1619.115483122732</v>
       </c>
       <c r="W13" t="n">
-        <v>1327.139029956954</v>
+        <v>1329.698313085771</v>
       </c>
       <c r="X13" t="n">
-        <v>1099.149479058937</v>
+        <v>1101.708762187754</v>
       </c>
       <c r="Y13" t="n">
-        <v>878.3568999154069</v>
+        <v>880.9161830442239</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5267,16 +5269,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
@@ -5288,37 +5290,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C15" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D15" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G15" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>2233.355914590559</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>2233.355914590559</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>2567.28068676178</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>3062.606292977538</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M15" t="n">
-        <v>3659.98478060409</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="N15" t="n">
-        <v>3659.98478060409</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>4211.894510843377</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>4420.9318370706</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>4654.193497445482</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S15" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T15" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U15" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V15" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W15" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X15" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y15" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400712</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>363.7369613277355</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>215.8238677453423</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5461,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5510,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5549,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,28 +5594,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>734.6461798836013</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>734.6461798836013</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>734.6461798836013</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5716,7 +5718,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5765,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>2231.588527385791</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>2565.513299557012</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>3060.83890577277</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M21" t="n">
-        <v>3658.217393399322</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N21" t="n">
-        <v>4102.283767206194</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>4654.193497445481</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>4654.193497445481</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>4654.193497445481</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S21" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T21" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V21" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W21" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>680.448174698413</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>530.3315352860773</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E22" t="n">
-        <v>382.4184417036842</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5944,16 +5946,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1541.24257163705</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1251.82540160009</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5975,31 +5977,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>2715.159942084666</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>3210.485548300425</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M24" t="n">
-        <v>3406.350378974037</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N24" t="n">
-        <v>4033.948342528643</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>4033.948342528643</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3173.601046153952</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C25" t="n">
-        <v>3173.601046153952</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D25" t="n">
-        <v>3023.484406741616</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E25" t="n">
-        <v>2875.571313159223</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F25" t="n">
-        <v>2728.681365661313</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>3677.571434467152</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W25" t="n">
-        <v>3677.571434467152</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X25" t="n">
-        <v>3576.042090127722</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y25" t="n">
-        <v>3355.249510984192</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="26">
@@ -6212,19 +6214,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6239,7 +6241,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>429.5088224239596</v>
+        <v>221.3431781811722</v>
       </c>
       <c r="L27" t="n">
-        <v>924.8344286397182</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M27" t="n">
-        <v>1231.938859683105</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N27" t="n">
-        <v>1859.536823237711</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>996.5276398439756</v>
+        <v>3229.995673940461</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>3061.059491012554</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>4404.185983673937</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>4115.110757018135</v>
       </c>
       <c r="V28" t="n">
-        <v>1688.385853854706</v>
+        <v>3860.426268812248</v>
       </c>
       <c r="W28" t="n">
-        <v>1398.968683817745</v>
+        <v>3860.426268812248</v>
       </c>
       <c r="X28" t="n">
-        <v>1398.968683817745</v>
+        <v>3632.436717914231</v>
       </c>
       <c r="Y28" t="n">
-        <v>1178.176104674215</v>
+        <v>3411.644138770701</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,64 +6451,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6649,22 +6651,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2197.062545487567</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1942.37805728168</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1652.96088724472</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6680,13 +6682,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,7 +6697,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6704,13 +6706,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>2231.588527385791</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>2565.513299557012</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>3060.83890577277</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M33" t="n">
-        <v>3060.83890577277</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N33" t="n">
-        <v>3688.436869327377</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O33" t="n">
-        <v>3997.308687575531</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P33" t="n">
-        <v>4420.931837070599</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="Q33" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>956.9553291057244</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C34" t="n">
-        <v>788.0191461778176</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D34" t="n">
-        <v>637.9025067654818</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E34" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6889,19 +6891,19 @@
         <v>2227.361618603201</v>
       </c>
       <c r="U34" t="n">
-        <v>2131.487582220359</v>
+        <v>2044.222762528164</v>
       </c>
       <c r="V34" t="n">
-        <v>1876.803094014472</v>
+        <v>1789.538274322277</v>
       </c>
       <c r="W34" t="n">
-        <v>1587.385923977512</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X34" t="n">
-        <v>1359.396373079494</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y34" t="n">
-        <v>1138.603793935964</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="35">
@@ -6923,10 +6925,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6935,10 +6937,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7023,16 +7025,16 @@
         <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N36" t="n">
-        <v>1520.445529061503</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>948.5505208511906</v>
+        <v>866.4638174991043</v>
       </c>
       <c r="C37" t="n">
-        <v>779.6143379232838</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2368.02429741636</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2148.422832439302</v>
       </c>
       <c r="U37" t="n">
-        <v>1941.434309135586</v>
+        <v>1859.347605783499</v>
       </c>
       <c r="V37" t="n">
-        <v>1686.749820929699</v>
+        <v>1604.663117577612</v>
       </c>
       <c r="W37" t="n">
-        <v>1397.332650892738</v>
+        <v>1315.245947540652</v>
       </c>
       <c r="X37" t="n">
-        <v>1169.343099994721</v>
+        <v>1087.256396642634</v>
       </c>
       <c r="Y37" t="n">
-        <v>948.5505208511906</v>
+        <v>866.4638174991043</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,7 +7162,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7211,10 +7213,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7251,28 +7253,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M39" t="n">
-        <v>923.0670414349511</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N39" t="n">
-        <v>1550.665004989558</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>950.7540666811333</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C40" t="n">
-        <v>781.8178837532264</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D40" t="n">
-        <v>631.7012443408906</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E40" t="n">
         <v>631.7012443408906</v>
@@ -7354,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2414.376801799955</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2231.521967454859</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2011.9205024778</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1722.845275821998</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1468.160787616111</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="W40" t="n">
-        <v>1178.743617579151</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X40" t="n">
-        <v>950.7540666811333</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y40" t="n">
-        <v>950.7540666811333</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7394,19 +7396,19 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7424,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L42" t="n">
-        <v>913.2907898187001</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M42" t="n">
-        <v>913.2907898187001</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N42" t="n">
-        <v>1540.888753373307</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>768.5380889459582</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>599.6019060180513</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>449.4852666057155</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>449.4852666057155</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F43" t="n">
-        <v>302.5953191078052</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G43" t="n">
-        <v>135.3992198226851</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>135.3992198226851</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7603,16 +7605,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>950.1865537761979</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7634,31 +7636,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C45" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D45" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>2231.588527385791</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>2565.513299557012</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>3060.83890577277</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>3658.217393399322</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N45" t="n">
-        <v>4267.210002903525</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O45" t="n">
-        <v>4267.210002903525</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S45" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T45" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U45" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V45" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W45" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X45" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y45" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="46">
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>916.2946447138411</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>916.2946447138411</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7849,7 +7851,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8058,28 +8060,28 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>273.6534998179984</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>249.387732507165</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>30.36925650589512</v>
       </c>
       <c r="P3" t="n">
-        <v>6.454437538930563</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>168.7434581780641</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8313,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8526,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>54.95314511566539</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23413,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>136.8413214260728</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>117.1847295890516</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23653,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,13 +23664,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>105.8997516911001</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23701,13 +23703,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>180.5336875992872</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23890,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986315</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E19" t="n">
-        <v>44.51847645928558</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24133,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24184,13 +24186,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>106.4657939283488</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24376,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24421,13 +24423,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>125.1956044930007</v>
+        <v>161.3036423121234</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>101.1181252153553</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>111.4161395899837</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24649,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,13 +24660,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,10 +24891,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>75.37549921168781</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25084,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>191.2691783702302</v>
+        <v>104.8770068749575</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25330,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>102.8768876993834</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>250.5179707280707</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25555,7 +25557,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>34.11482774761934</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25606,10 +25608,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>7.482525529413039</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25792,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>40.09910511159944</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25843,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26020,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>13.30196929556061</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>828361.0974444314</v>
+        <v>835491.4104457163</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>828361.0974444314</v>
+        <v>835491.4104457163</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>814465.9272701541</v>
+        <v>814465.927270154</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>814465.927270154</v>
+        <v>814465.9272701541</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>814465.9272701539</v>
+        <v>814465.927270154</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>814465.9272701541</v>
+        <v>814465.927270154</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>814465.9272701541</v>
+        <v>814465.927270154</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>814465.9272701541</v>
+        <v>814465.927270154</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>615781.3273982123</v>
+      </c>
+      <c r="C2" t="n">
         <v>615781.3273982126</v>
       </c>
-      <c r="C2" t="n">
-        <v>615781.3273982122</v>
-      </c>
       <c r="D2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.3273982127</v>
       </c>
       <c r="E2" t="n">
         <v>605359.9497675042</v>
       </c>
       <c r="F2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="G2" t="n">
         <v>605359.9497675041</v>
       </c>
       <c r="H2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="I2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="J2" t="n">
         <v>605359.9497675041</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
+        <v>605359.949767504</v>
+      </c>
+      <c r="L2" t="n">
         <v>605359.9497675042</v>
       </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
         <v>605359.9497675042</v>
       </c>
-      <c r="K2" t="n">
-        <v>605359.9497675044</v>
-      </c>
-      <c r="L2" t="n">
-        <v>605359.9497675044</v>
-      </c>
-      <c r="M2" t="n">
-        <v>605359.9497675045</v>
-      </c>
       <c r="N2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="O2" t="n">
         <v>605359.9497675042</v>
       </c>
       <c r="P2" t="n">
-        <v>605359.9497675046</v>
+        <v>605359.9497675041</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.741612106</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>507485.4416245458</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,13 +26392,13 @@
         <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605442</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551193</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>134318.0002618637</v>
+      </c>
+      <c r="C4" t="n">
         <v>134318.0002618638</v>
       </c>
-      <c r="C4" t="n">
-        <v>87304.34719808325</v>
-      </c>
       <c r="D4" t="n">
-        <v>87304.34719808334</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="E4" t="n">
-        <v>8117.312426731935</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="F4" t="n">
-        <v>8117.312426732005</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="G4" t="n">
-        <v>8117.312426731924</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="H4" t="n">
         <v>8117.312426731974</v>
@@ -26442,7 +26444,7 @@
         <v>8117.312426731974</v>
       </c>
       <c r="K4" t="n">
-        <v>8117.312426732037</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="L4" t="n">
         <v>8117.312426731974</v>
@@ -26457,7 +26459,7 @@
         <v>8117.312426731974</v>
       </c>
       <c r="P4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731974</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26472,10 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,16 +26521,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-726226.2288794152</v>
+        <v>-726226.2288794158</v>
       </c>
       <c r="C6" t="n">
-        <v>217104.2980266296</v>
+        <v>388525.5546965041</v>
       </c>
       <c r="D6" t="n">
-        <v>420543.0396387361</v>
+        <v>388525.5546965044</v>
       </c>
       <c r="E6" t="n">
-        <v>170707.6457095097</v>
+        <v>-11365.33410768064</v>
       </c>
       <c r="F6" t="n">
         <v>496120.1075168653</v>
@@ -26537,31 +26539,31 @@
         <v>496120.1075168651</v>
       </c>
       <c r="H6" t="n">
-        <v>496120.1075168651</v>
+        <v>496120.1075168652</v>
       </c>
       <c r="I6" t="n">
+        <v>496120.1075168653</v>
+      </c>
+      <c r="J6" t="n">
+        <v>328514.9297068825</v>
+      </c>
+      <c r="K6" t="n">
+        <v>496120.107516865</v>
+      </c>
+      <c r="L6" t="n">
         <v>496120.1075168652</v>
       </c>
-      <c r="J6" t="n">
-        <v>328514.9297068826</v>
-      </c>
-      <c r="K6" t="n">
-        <v>447010.0148108108</v>
-      </c>
-      <c r="L6" t="n">
-        <v>496120.1075168653</v>
-      </c>
       <c r="M6" t="n">
-        <v>411065.0795813535</v>
+        <v>363512.8137879384</v>
       </c>
       <c r="N6" t="n">
-        <v>496120.1075168653</v>
+        <v>496120.1075168652</v>
       </c>
       <c r="O6" t="n">
         <v>496120.1075168652</v>
       </c>
       <c r="P6" t="n">
-        <v>496120.1075168655</v>
+        <v>496120.1075168651</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,16 +26792,16 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022923</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757592</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>433.9106082241345</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27012,13 +27014,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022539</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973561</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27036,13 +27038,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022537</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,13 +27260,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022539</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27381,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>175.5543663269192</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>107.2391534717365</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,19 +27432,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27540,19 +27542,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27582,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>12.7276553781999</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>161.0769950475105</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27628,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>44.17764388130476</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>6.224405299533309</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,19 +27669,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27771,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>140.9799360063676</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>122.9269869156316</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>17.30754642717591</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>359.7729426007372</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>65.87037161762095</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>45.23818997645475</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28077,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31042,43 +31044,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,7 +31135,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31142,25 +31144,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31233,13 +31235,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31844,16 +31846,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>282.8216163968503</v>
       </c>
       <c r="N12" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -32075,25 +32077,25 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>704.1404939038099</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>345.1232217852619</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
@@ -32245,7 +32247,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
         <v>926.5868626460027</v>
@@ -32312,19 +32314,19 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>189.0011860883002</v>
+        <v>705.9257335045849</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32333,10 +32335,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32549,28 +32551,28 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>579.5299594447137</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>579.8936048175474</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
@@ -32731,7 +32733,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
         <v>125.31755462929</v>
@@ -32789,25 +32791,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M24" t="n">
-        <v>339.9772972286964</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33020,25 +33022,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>266.6561007250664</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>452.3405299254388</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33047,7 +33049,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33205,7 +33207,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33260,22 +33262,22 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>579.5299594447137</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>473.8581708471803</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33497,31 +33499,31 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>454.5879800486398</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>177.7456072667729</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33743,19 +33745,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>522.1224556861836</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>167.1165249313368</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33889,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33971,31 +33973,31 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>211.7351844430274</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>491.597732526532</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34153,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34205,31 +34207,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>629.0082733147303</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>669.466988500007</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34442,10 +34444,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34454,13 +34456,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>650.2626573149953</v>
       </c>
       <c r="N45" t="n">
-        <v>746.485762087579</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>640.5848321000389</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>365.7939385020181</v>
       </c>
       <c r="P3" t="n">
-        <v>256.1339666624628</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34866,7 +34868,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34875,7 +34877,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>355.3309544215489</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>304.6326742391977</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35425,7 +35427,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q11" t="n">
         <v>371.5675334924728</v>
@@ -35492,16 +35494,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>140.6875824748321</v>
       </c>
       <c r="N12" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35656,7 +35658,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193529</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
         <v>696.488651224316</v>
@@ -35723,25 +35725,25 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>572.7987818204766</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>211.1488143709317</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
@@ -35893,7 +35895,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O17" t="n">
         <v>696.488651224316</v>
@@ -35960,19 +35962,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>57.65947400496688</v>
+        <v>574.5840214212516</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -35981,10 +35983,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36133,7 +36135,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
@@ -36142,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>448.5518927342141</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>37.00975247789211</v>
@@ -36379,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,25 +36439,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M24" t="n">
-        <v>197.8432633066781</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36610,7 +36612,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
         <v>371.5675334924728</v>
@@ -36668,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>128.8146617507074</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>310.2064960034205</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36695,7 +36697,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36853,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,22 +36910,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>342.516458763847</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -37075,7 +37077,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>311.9917356041954</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37327,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,19 +37393,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>379.5262112417391</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>27.13475084531527</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37537,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37561,7 +37563,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37619,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>73.18080466315317</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>349.0014880820875</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37801,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>490.4538935348562</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>526.8707440555626</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -38014,7 +38016,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38090,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38102,13 +38104,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>508.128623392977</v>
       </c>
       <c r="N45" t="n">
-        <v>615.1440500042457</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_12_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_12_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2350921.348866668</v>
+        <v>2346784.191616517</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9478451.173900183</v>
+        <v>9478451.173900181</v>
       </c>
     </row>
     <row r="11">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>189.7185254440884</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>54.52583691649642</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>75.49658235021603</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>125.1501590736901</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>300.2260400206185</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>59.48550737293719</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,10 +955,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1062,19 +1062,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>25.32666403843657</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1107,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>18.56489249210083</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1122,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1141,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>178.9881831928164</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>26.46499605531635</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>82.74510140059141</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>138.0518602851296</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>73.98898794535445</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>63.841556412593</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1767,16 +1767,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1815,13 +1815,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>105.6507867899569</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2247,10 +2247,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>18.70843787977262</v>
+        <v>134.3852063573442</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2535,13 +2535,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>64.40601307691377</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695527</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,16 +2715,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D28" t="n">
-        <v>37.1993334282287</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2763,7 +2763,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3040,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3192,10 +3192,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>181.3074675142866</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3432,16 +3432,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>78.14939830226119</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3556,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3672,16 +3672,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,19 +3717,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>99.43007309478926</v>
       </c>
       <c r="V40" t="n">
-        <v>244.655117794415</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3906,16 +3906,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>18.70843787977262</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -3948,10 +3948,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>45.17596778974989</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4146,13 +4146,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2184.059060190806</v>
+        <v>1992.424186004858</v>
       </c>
       <c r="C2" t="n">
         <v>1992.424186004858</v>
@@ -4330,25 +4330,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872908</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q2" t="n">
         <v>2542.25058172385</v>
@@ -4363,19 +4363,19 @@
         <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>2184.059060190806</v>
+        <v>2382.56351798067</v>
       </c>
       <c r="V2" t="n">
-        <v>2184.059060190806</v>
+        <v>2382.56351798067</v>
       </c>
       <c r="W2" t="n">
-        <v>2184.059060190806</v>
+        <v>2382.56351798067</v>
       </c>
       <c r="X2" t="n">
-        <v>2184.059060190806</v>
+        <v>2382.56351798067</v>
       </c>
       <c r="Y2" t="n">
-        <v>2184.059060190806</v>
+        <v>1992.424186004858</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
@@ -4409,28 +4409,28 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>168.0008189145204</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735141</v>
+        <v>614.5430248380231</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049857</v>
+        <v>909.2465818694948</v>
       </c>
       <c r="M3" t="n">
-        <v>1218.104987164206</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N3" t="n">
-        <v>1605.390115761151</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878149</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710446</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>682.9724752679349</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C4" t="n">
-        <v>514.036292340028</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D4" t="n">
-        <v>514.036292340028</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E4" t="n">
-        <v>366.1231987576349</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F4" t="n">
-        <v>219.2332512597245</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
         <v>51.24678656800311</v>
@@ -4488,52 +4488,52 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1560.18694598337</v>
       </c>
       <c r="S4" t="n">
-        <v>1439.817372234359</v>
+        <v>1363.558198143231</v>
       </c>
       <c r="T4" t="n">
-        <v>1439.817372234359</v>
+        <v>1140.579717337966</v>
       </c>
       <c r="U4" t="n">
-        <v>1313.403070139722</v>
+        <v>1140.579717337966</v>
       </c>
       <c r="V4" t="n">
-        <v>1313.403070139722</v>
+        <v>885.8952291320793</v>
       </c>
       <c r="W4" t="n">
-        <v>1313.403070139722</v>
+        <v>885.8952291320793</v>
       </c>
       <c r="X4" t="n">
-        <v>1085.413519241705</v>
+        <v>885.8952291320793</v>
       </c>
       <c r="Y4" t="n">
-        <v>864.6209400981746</v>
+        <v>665.1026499885492</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2051.040280862503</v>
+        <v>1878.50778578647</v>
       </c>
       <c r="C5" t="n">
-        <v>1682.077763922091</v>
+        <v>1509.545268846058</v>
       </c>
       <c r="D5" t="n">
-        <v>1323.812065315341</v>
+        <v>1151.279570239308</v>
       </c>
       <c r="E5" t="n">
-        <v>938.0238127170967</v>
+        <v>765.4913176410637</v>
       </c>
       <c r="F5" t="n">
-        <v>527.0379079274892</v>
+        <v>354.5054128514561</v>
       </c>
       <c r="G5" t="n">
-        <v>111.333157651778</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H5" t="n">
-        <v>111.333157651778</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
         <v>51.2467865680031</v>
@@ -4570,13 +4570,13 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816081</v>
+        <v>442.517185281608</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872912</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>2437.640120926625</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="W5" t="n">
-        <v>2437.640120926625</v>
+        <v>1878.50778578647</v>
       </c>
       <c r="X5" t="n">
-        <v>2437.640120926625</v>
+        <v>1878.50778578647</v>
       </c>
       <c r="Y5" t="n">
-        <v>2437.640120926625</v>
+        <v>1878.50778578647</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>590.2049751143495</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>884.9085321458213</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M6" t="n">
-        <v>1248.170551105041</v>
+        <v>1227.201367341571</v>
       </c>
       <c r="N6" t="n">
-        <v>1635.455679701987</v>
+        <v>1614.486495938516</v>
       </c>
       <c r="O6" t="n">
-        <v>1967.526114878148</v>
+        <v>1946.556931114678</v>
       </c>
       <c r="P6" t="n">
-        <v>2214.708848710445</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>648.2725968131173</v>
+        <v>220.18296949591</v>
       </c>
       <c r="C7" t="n">
-        <v>479.3364138852104</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="D7" t="n">
-        <v>479.3364138852104</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E7" t="n">
-        <v>331.4233203028173</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F7" t="n">
-        <v>331.4233203028173</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4740,10 +4740,10 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4755,22 +4755,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="U7" t="n">
-        <v>1347.327782578335</v>
+        <v>1394.715222610545</v>
       </c>
       <c r="V7" t="n">
-        <v>1347.327782578335</v>
+        <v>1140.030734404658</v>
       </c>
       <c r="W7" t="n">
-        <v>1057.910612541374</v>
+        <v>850.6135643676972</v>
       </c>
       <c r="X7" t="n">
-        <v>829.921061643357</v>
+        <v>622.6240134696799</v>
       </c>
       <c r="Y7" t="n">
-        <v>829.921061643357</v>
+        <v>401.8314343261497</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1671.539306344596</v>
+        <v>1363.669246337128</v>
       </c>
       <c r="C8" t="n">
-        <v>1302.576789404184</v>
+        <v>994.7067293967168</v>
       </c>
       <c r="D8" t="n">
-        <v>944.3110907974335</v>
+        <v>636.4410307899664</v>
       </c>
       <c r="E8" t="n">
-        <v>944.3110907974335</v>
+        <v>250.6527781917221</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3251860078259</v>
+        <v>243.7072774425187</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>232.0429312072116</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.517185281608</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U8" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="V8" t="n">
-        <v>2437.640120926626</v>
+        <v>2106.577233583054</v>
       </c>
       <c r="W8" t="n">
-        <v>2084.871465656512</v>
+        <v>1753.80857831294</v>
       </c>
       <c r="X8" t="n">
-        <v>2084.871465656512</v>
+        <v>1753.80857831294</v>
       </c>
       <c r="Y8" t="n">
-        <v>2058.139146408717</v>
+        <v>1363.669246337128</v>
       </c>
     </row>
     <row r="9">
@@ -4880,25 +4880,25 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735141</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L9" t="n">
-        <v>854.8429682049857</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M9" t="n">
-        <v>1218.104987164206</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1605.390115761151</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>1937.460550937313</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
         <v>2239.046898434118</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>283.5665952101448</v>
+        <v>220.18296949591</v>
       </c>
       <c r="C10" t="n">
-        <v>283.5665952101448</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="D10" t="n">
-        <v>199.9856847044969</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E10" t="n">
-        <v>199.9856847044969</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F10" t="n">
-        <v>199.9856847044969</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9856847044969</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.86271359008</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.86271359008</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T10" t="n">
-        <v>1310.884232784815</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="U10" t="n">
-        <v>1021.765895288653</v>
+        <v>1244.744376093917</v>
       </c>
       <c r="V10" t="n">
-        <v>1021.765895288653</v>
+        <v>990.0598878880302</v>
       </c>
       <c r="W10" t="n">
-        <v>732.3487252516923</v>
+        <v>850.6135643676972</v>
       </c>
       <c r="X10" t="n">
-        <v>504.3591743536749</v>
+        <v>622.6240134696799</v>
       </c>
       <c r="Y10" t="n">
-        <v>283.5665952101448</v>
+        <v>401.8314343261497</v>
       </c>
     </row>
     <row r="11">
@@ -5023,16 +5023,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
@@ -5056,7 +5056,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5120,25 +5120,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>577.3880777468471</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>699.2677182139842</v>
+        <v>801.6918836311989</v>
       </c>
       <c r="C13" t="n">
-        <v>530.3315352860773</v>
+        <v>632.7557007032921</v>
       </c>
       <c r="D13" t="n">
-        <v>530.3315352860773</v>
+        <v>482.6390612909563</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>482.6390612909563</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>335.7491137930459</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>168.5530145079259</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>168.5530145079259</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5226,25 +5226,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2382.47666296148</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2162.875197984421</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1873.799971328619</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1619.115483122732</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1329.698313085771</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1101.708762187754</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>880.9161830442239</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="14">
@@ -5269,10 +5269,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5287,13 +5287,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5354,31 +5354,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>740.5562989961525</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M15" t="n">
-        <v>740.5562989961525</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
         <v>484.8112968429803</v>
@@ -5463,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5506,37 +5506,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5591,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913853</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M18" t="n">
-        <v>738.7889117913853</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5673,52 +5673,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5734,13 +5734,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5749,22 +5749,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>194.8007783998286</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E22" t="n">
-        <v>175.9033664000583</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5980,31 +5980,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6065,25 +6065,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>931.4710609784063</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>762.5348780504994</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>612.4182386381636</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1688.385853854706</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1398.968683817745</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1333.912104952176</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>1113.119525808646</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6217,10 +6217,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
@@ -6235,13 +6235,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6302,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>221.3431781811722</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3229.995673940461</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>3061.059491012554</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>3023.484406741616</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159223</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4404.185983673937</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>4115.110757018135</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>3860.426268812248</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>3860.426268812248</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>3632.436717914231</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>3411.644138770701</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6451,34 +6451,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6612,7 +6612,7 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6682,22 +6682,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6706,13 +6706,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6776,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>869.6905094135296</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>700.7543264856228</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>550.637687073287</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
         <v>402.7245934908939</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>2044.222762528164</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1789.538274322277</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1500.121104285317</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1272.131553387299</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>1051.338974243769</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6934,7 +6934,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7013,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>923.0670414349511</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1550.665004989558</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2102.574735228845</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2526.197884723913</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>866.4638174991043</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2368.02429741636</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2148.422832439302</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1859.347605783499</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1604.663117577612</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1315.245947540652</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1087.256396642634</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>866.4638174991043</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>315.9123021921482</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1877.026663243044</v>
       </c>
       <c r="V40" t="n">
-        <v>1508.305175991783</v>
+        <v>1622.342175037157</v>
       </c>
       <c r="W40" t="n">
-        <v>1508.305175991783</v>
+        <v>1332.925005000197</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.315625093766</v>
+        <v>1104.935454102179</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="41">
@@ -7393,25 +7393,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7420,13 +7420,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7493,25 +7493,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1337.934786622704</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>194.8007783998286</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>175.9033664000583</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2334.285089135946</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>2045.209862480144</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1790.525374274257</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7736,13 +7736,13 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7794,10 +7794,10 @@
         <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>54.95314511566572</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8072,7 +8072,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>30.36925650589512</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8081,7 +8081,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,16 +8294,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>168.7434581780641</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>273.6534998179983</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>45.76488231024575</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>54.95314511566539</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>7.276848373211081</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>117.1847295890516</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23655,16 +23655,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23703,13 +23703,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>65.54986409393068</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24135,10 +24135,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>127.7255247667966</v>
+        <v>12.04875628922497</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -24147,7 +24147,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24423,13 +24423,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>161.3036423121234</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24603,16 +24603,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D28" t="n">
-        <v>111.4161395899837</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24852,10 +24852,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -25080,10 +25080,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>104.8770068749575</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25320,16 +25320,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>102.8768876993834</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25560,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,19 +25605,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>186.7544012944549</v>
       </c>
       <c r="V40" t="n">
-        <v>7.482525529413039</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25794,16 +25794,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>127.7255247667966</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>172.2294825375384</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26034,13 +26034,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>62.35543909864957</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>835491.4104457163</v>
+        <v>835491.4104457165</v>
       </c>
     </row>
     <row r="4">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>814465.9272701541</v>
+        <v>814465.927270154</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>814465.9272701541</v>
+        <v>814465.927270154</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>814465.9272701541</v>
+        <v>814465.927270154</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>814465.9272701541</v>
+        <v>814465.927270154</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>814465.927270154</v>
+        <v>814465.9272701541</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982123</v>
+        <v>615781.3273982126</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.3273982129</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982127</v>
+        <v>615781.3273982124</v>
       </c>
       <c r="E2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="F2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="G2" t="n">
         <v>605359.9497675042</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="I2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="J2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="K2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="L2" t="n">
         <v>605359.9497675044</v>
       </c>
-      <c r="G2" t="n">
+      <c r="M2" t="n">
         <v>605359.9497675041</v>
       </c>
-      <c r="H2" t="n">
-        <v>605359.9497675042</v>
-      </c>
-      <c r="I2" t="n">
-        <v>605359.9497675044</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="N2" t="n">
         <v>605359.9497675041</v>
       </c>
-      <c r="K2" t="n">
-        <v>605359.949767504</v>
-      </c>
-      <c r="L2" t="n">
-        <v>605359.9497675042</v>
-      </c>
-      <c r="M2" t="n">
-        <v>605359.9497675042</v>
-      </c>
-      <c r="N2" t="n">
-        <v>605359.9497675042</v>
-      </c>
       <c r="O2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675047</v>
       </c>
       <c r="P2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675047</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245458</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>134318.0002618637</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="C4" t="n">
         <v>134318.0002618638</v>
       </c>
       <c r="D4" t="n">
-        <v>134318.0002618637</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="E4" t="n">
         <v>8117.312426731974</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-726226.2288794158</v>
+        <v>-726226.2288794152</v>
       </c>
       <c r="C6" t="n">
-        <v>388525.5546965041</v>
+        <v>388525.5546965044</v>
       </c>
       <c r="D6" t="n">
-        <v>388525.5546965044</v>
+        <v>388525.5546965039</v>
       </c>
       <c r="E6" t="n">
-        <v>-11365.33410768064</v>
+        <v>-11712.71336203763</v>
       </c>
       <c r="F6" t="n">
-        <v>496120.1075168653</v>
+        <v>495772.7282625081</v>
       </c>
       <c r="G6" t="n">
-        <v>496120.1075168651</v>
+        <v>495772.728262508</v>
       </c>
       <c r="H6" t="n">
-        <v>496120.1075168652</v>
+        <v>495772.7282625082</v>
       </c>
       <c r="I6" t="n">
-        <v>496120.1075168653</v>
+        <v>495772.7282625081</v>
       </c>
       <c r="J6" t="n">
-        <v>328514.9297068825</v>
+        <v>328167.5504525256</v>
       </c>
       <c r="K6" t="n">
-        <v>496120.107516865</v>
+        <v>495772.7282625081</v>
       </c>
       <c r="L6" t="n">
-        <v>496120.1075168652</v>
+        <v>495772.7282625083</v>
       </c>
       <c r="M6" t="n">
-        <v>363512.8137879384</v>
+        <v>363165.4345335814</v>
       </c>
       <c r="N6" t="n">
-        <v>496120.1075168652</v>
+        <v>495772.7282625081</v>
       </c>
       <c r="O6" t="n">
-        <v>496120.1075168652</v>
+        <v>495772.7282625087</v>
       </c>
       <c r="P6" t="n">
-        <v>496120.1075168651</v>
+        <v>495772.7282625087</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26795,7 +26795,7 @@
         <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241345</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>175.5543663269192</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>196.5194132119656</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27551,10 +27551,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>26.0609900693576</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>161.0769950475105</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>111.3216627523355</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>6.224405299533309</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
@@ -27675,10 +27675,10 @@
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27782,19 +27782,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>140.9799360063676</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27827,13 +27827,13 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>267.6622616290998</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>122.030369369589</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27912,7 +27912,7 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>359.7729426007372</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>65.87037161762095</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28028,7 +28028,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28064,16 +28064,16 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>148.4711380514614</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -31044,43 +31044,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,7 +31135,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31144,25 +31144,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31235,13 +31235,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31281,43 +31281,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,7 +31372,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31381,25 +31381,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31472,13 +31472,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31518,43 +31518,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,7 +31609,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31618,25 +31618,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31709,13 +31709,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31840,28 +31840,28 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>282.8216163968503</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32074,34 +32074,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>704.1404939038099</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>334.7693860946154</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
         <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>595.3857163736978</v>
       </c>
       <c r="N18" t="n">
-        <v>705.9257335045849</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32548,34 +32548,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>579.5299594447137</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32785,16 +32785,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,10 +32803,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33022,31 +33022,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>266.6561007250664</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33207,7 +33207,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33259,34 +33259,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>579.5299594447137</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33496,13 +33496,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33514,13 +33514,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>177.7456072667729</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33733,10 +33733,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33745,19 +33745,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>167.1165249313368</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33970,16 +33970,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>211.7351844430274</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33988,16 +33988,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34213,7 +34213,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34222,19 +34222,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>669.466988500007</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34456,16 +34456,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>650.2626573149953</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>117.9333660065831</v>
       </c>
       <c r="K3" t="n">
         <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>365.7939385020181</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34868,7 +34868,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34877,7 +34877,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,16 +35014,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>355.3309544215489</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
@@ -35032,13 +35032,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>295.444411433778</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35105,7 +35105,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35114,7 +35114,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,16 +35251,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
@@ -35269,10 +35269,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>304.6326742391977</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35342,7 +35342,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35351,7 +35351,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35418,7 +35418,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
@@ -35427,7 +35427,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
         <v>371.5675334924728</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>140.6875824748321</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>572.7987818204766</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>200.7949786802852</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>453.2516824516795</v>
       </c>
       <c r="N18" t="n">
-        <v>574.5840214212516</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36135,7 +36135,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>440.9755796648395</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,10 +36451,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>128.8146617507074</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>440.9755796648395</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37077,7 +37077,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37162,13 +37162,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37393,19 +37393,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>27.13475084531527</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>73.18080466315317</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37636,16 +37636,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37870,19 +37870,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>526.8707440555626</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38104,16 +38104,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>508.128623392977</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_12_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_12_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2346784.191616517</v>
+        <v>2348544.721919303</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12383593.4843585</v>
+        <v>12383593.48435851</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283181</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -679,7 +679,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>13.60776174434545</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>54.52583691649642</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>75.49658235021603</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>77.12665771331828</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,22 +898,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>300.2260400206185</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>279.9125597564126</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1107,19 +1107,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>18.56489249210083</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>206.279163323328</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1144,13 +1144,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>309.3164443333242</v>
       </c>
       <c r="G8" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>178.9881831928164</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705011</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1293,19 +1293,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>200.5364421974648</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>138.0518602851296</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>61.4401302107681</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>73.98898794535445</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1767,16 +1767,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>28.75188085812005</v>
+        <v>53.08838020946272</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -2016,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>134.3852063573442</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>28.75188085812005</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>26.13627195705873</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>99.43007309478926</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3906,19 +3906,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>45.17596778974989</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4306,49 +4306,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1992.424186004858</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="C2" t="n">
-        <v>1992.424186004858</v>
+        <v>1939.795750723923</v>
       </c>
       <c r="D2" t="n">
-        <v>1634.158487398107</v>
+        <v>1581.530052117173</v>
       </c>
       <c r="E2" t="n">
-        <v>1248.370234799863</v>
+        <v>1195.741799518929</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>784.7558947293212</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>369.05114445361</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>64.99200045118033</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872908</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
         <v>2542.25058172385</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>2382.56351798067</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V2" t="n">
-        <v>2382.56351798067</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="W2" t="n">
-        <v>2382.56351798067</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="X2" t="n">
-        <v>2382.56351798067</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="Y2" t="n">
-        <v>1992.424186004858</v>
+        <v>2308.758267664335</v>
       </c>
     </row>
     <row r="3">
@@ -4391,13 +4391,13 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
@@ -4409,25 +4409,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>168.0008189145204</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>614.5430248380231</v>
+        <v>684.9695361605189</v>
       </c>
       <c r="L3" t="n">
-        <v>909.2465818694948</v>
+        <v>979.6730931919907</v>
       </c>
       <c r="M3" t="n">
-        <v>1272.508600828715</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N3" t="n">
-        <v>1659.79372942566</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601822</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434119</v>
+        <v>2309.473409756615</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4442,7 +4442,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>665.1026499885492</v>
+        <v>1758.982323005929</v>
       </c>
       <c r="C4" t="n">
-        <v>496.1664670606423</v>
+        <v>1590.046140078022</v>
       </c>
       <c r="D4" t="n">
-        <v>346.0498276483066</v>
+        <v>1439.929500665686</v>
       </c>
       <c r="E4" t="n">
-        <v>198.1367340659135</v>
+        <v>1292.016407083293</v>
       </c>
       <c r="F4" t="n">
-        <v>51.24678656800311</v>
+        <v>1145.126459585383</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936612</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936612</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936612</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>1002.60916787878</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>1174.299679627706</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>1449.530858294981</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>1750.112669035317</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.981932571481</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>2508.006390496682</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>1560.18694598337</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S4" t="n">
-        <v>1363.558198143231</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T4" t="n">
-        <v>1140.579717337966</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U4" t="n">
-        <v>1140.579717337966</v>
+        <v>2273.220990903993</v>
       </c>
       <c r="V4" t="n">
-        <v>885.8952291320793</v>
+        <v>2018.536502698106</v>
       </c>
       <c r="W4" t="n">
-        <v>885.8952291320793</v>
+        <v>1940.630787836168</v>
       </c>
       <c r="X4" t="n">
-        <v>885.8952291320793</v>
+        <v>1940.630787836168</v>
       </c>
       <c r="Y4" t="n">
-        <v>665.1026499885492</v>
+        <v>1940.630787836168</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1878.50778578647</v>
+        <v>1114.90269554958</v>
       </c>
       <c r="C5" t="n">
-        <v>1509.545268846058</v>
+        <v>1114.90269554958</v>
       </c>
       <c r="D5" t="n">
-        <v>1151.279570239308</v>
+        <v>756.6369969428295</v>
       </c>
       <c r="E5" t="n">
-        <v>765.4913176410637</v>
+        <v>756.6369969428295</v>
       </c>
       <c r="F5" t="n">
-        <v>354.5054128514561</v>
+        <v>345.6510921532219</v>
       </c>
       <c r="G5" t="n">
-        <v>51.2467865680031</v>
+        <v>333.9867459179148</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.517185281608</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872912</v>
+        <v>795.7553530872924</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V5" t="n">
-        <v>2231.276441056584</v>
+        <v>2231.276441056586</v>
       </c>
       <c r="W5" t="n">
-        <v>1878.50778578647</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="X5" t="n">
-        <v>1878.50778578647</v>
+        <v>1505.042027525392</v>
       </c>
       <c r="Y5" t="n">
-        <v>1878.50778578647</v>
+        <v>1114.90269554958</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625329</v>
+        <v>932.4978103101001</v>
       </c>
       <c r="M6" t="n">
-        <v>1227.201367341571</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N6" t="n">
-        <v>1614.486495938516</v>
+        <v>1683.044957866266</v>
       </c>
       <c r="O6" t="n">
-        <v>1946.556931114678</v>
+        <v>2015.115393042428</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2262.298126874724</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4701,49 +4701,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>220.18296949591</v>
+        <v>770.9577966591559</v>
       </c>
       <c r="C7" t="n">
-        <v>51.2467865680031</v>
+        <v>602.021613731249</v>
       </c>
       <c r="D7" t="n">
-        <v>51.2467865680031</v>
+        <v>451.9049743189132</v>
       </c>
       <c r="E7" t="n">
-        <v>51.2467865680031</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="F7" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4755,22 +4755,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1413.467639269232</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1394.715222610545</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1140.030734404658</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W7" t="n">
-        <v>850.6135643676972</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="X7" t="n">
-        <v>622.6240134696799</v>
+        <v>1173.398840632926</v>
       </c>
       <c r="Y7" t="n">
-        <v>401.8314343261497</v>
+        <v>952.6062614893956</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1363.669246337128</v>
+        <v>1488.36845381066</v>
       </c>
       <c r="C8" t="n">
-        <v>994.7067293967168</v>
+        <v>1119.405936870249</v>
       </c>
       <c r="D8" t="n">
-        <v>636.4410307899664</v>
+        <v>761.1402382634981</v>
       </c>
       <c r="E8" t="n">
-        <v>250.6527781917221</v>
+        <v>375.3519856652538</v>
       </c>
       <c r="F8" t="n">
-        <v>243.7072774425187</v>
+        <v>62.9111328033102</v>
       </c>
       <c r="G8" t="n">
-        <v>232.0429312072116</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.528182236282</v>
       </c>
       <c r="K8" t="n">
-        <v>442.517185281608</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872913</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764999</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723852</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="U8" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="V8" t="n">
-        <v>2106.577233583054</v>
+        <v>2231.276441056586</v>
       </c>
       <c r="W8" t="n">
-        <v>1753.80857831294</v>
+        <v>1878.507785786472</v>
       </c>
       <c r="X8" t="n">
-        <v>1753.80857831294</v>
+        <v>1878.507785786472</v>
       </c>
       <c r="Y8" t="n">
-        <v>1363.669246337128</v>
+        <v>1488.36845381066</v>
       </c>
     </row>
     <row r="9">
@@ -4880,22 +4880,22 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380227</v>
+        <v>614.5430248380217</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694943</v>
+        <v>909.2465818694936</v>
       </c>
       <c r="M9" t="n">
         <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O9" t="n">
         <v>1991.864164601821</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>220.18296949591</v>
+        <v>514.036292340028</v>
       </c>
       <c r="C10" t="n">
-        <v>51.2467865680031</v>
+        <v>514.036292340028</v>
       </c>
       <c r="D10" t="n">
-        <v>51.2467865680031</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E10" t="n">
-        <v>51.2467865680031</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F10" t="n">
-        <v>51.2467865680031</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312208</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020477</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693238</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096592</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U10" t="n">
-        <v>1244.744376093917</v>
+        <v>1433.884057248776</v>
       </c>
       <c r="V10" t="n">
-        <v>990.0598878880302</v>
+        <v>1433.884057248776</v>
       </c>
       <c r="W10" t="n">
-        <v>850.6135643676972</v>
+        <v>1144.466887211815</v>
       </c>
       <c r="X10" t="n">
-        <v>622.6240134696799</v>
+        <v>916.4773363137979</v>
       </c>
       <c r="Y10" t="n">
-        <v>401.8314343261497</v>
+        <v>695.6847571702677</v>
       </c>
     </row>
     <row r="11">
@@ -5023,7 +5023,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5035,16 +5035,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,37 +5053,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>738.7889117913855</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1336.167399417938</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>1963.765362972545</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2515.675093211832</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>801.6918836311989</v>
+        <v>633.4413279836774</v>
       </c>
       <c r="C13" t="n">
-        <v>632.7557007032921</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="D13" t="n">
-        <v>482.6390612909563</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E13" t="n">
-        <v>482.6390612909563</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F13" t="n">
-        <v>335.7491137930459</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>168.5530145079259</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>168.5530145079259</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y13" t="n">
-        <v>983.3403484614387</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,61 +5266,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>577.3880777468471</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M15" t="n">
-        <v>1174.766565373399</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N15" t="n">
-        <v>1802.364528928006</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O15" t="n">
-        <v>2354.274259167293</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>983.3556038098242</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429803</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>1165.004068640064</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5506,31 +5506,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694708</v>
@@ -5539,25 +5539,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K18" t="n">
-        <v>429.5088224239596</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L18" t="n">
         <v>924.8344286397185</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5664,13 +5664,13 @@
         <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5734,67 +5734,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>695.5020655703109</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>526.5658826424041</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>376.4492432300683</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5980,31 +5980,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6126,49 +6126,49 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2437.724555511392</v>
@@ -6202,52 +6202,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429803</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6451,34 +6451,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6688,61 +6688,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6837,49 +6837,49 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2437.724555511392</v>
@@ -6934,25 +6934,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>983.3556038098242</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>814.4194208819173</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>664.3027814695815</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>516.3896878871884</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>369.499740389278</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>202.303641104158</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>1165.004068640064</v>
       </c>
     </row>
     <row r="38">
@@ -7162,34 +7162,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>702.4944101284095</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>533.5582272005026</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>383.4415877881669</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1877.026663243044</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1622.342175037157</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1332.925005000197</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1104.935454102179</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>884.1428749586493</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7402,31 +7402,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2334.285089135946</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>2045.209862480144</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1790.525374274257</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7654,16 +7654,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7785,22 +7785,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>54.95314511566572</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>138.9393975111057</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8300,10 +8300,10 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>342.9044714621888</v>
       </c>
       <c r="M6" t="n">
-        <v>273.6534998179983</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>45.76488231024575</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>186.5911984019036</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.327346787835</v>
+        <v>193.3273467878337</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154983</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>-1.591615728102624e-12</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>118.3918499711692</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>7.276848373211081</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23655,16 +23655,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>138.4949402405078</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23904,10 +23904,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
         <v>57.22910392194174</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856552</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>12.04875628922497</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>138.4949402405078</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24612,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>116.6691671648107</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459264</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>186.7544012944549</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>172.2294825375384</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>835491.4104457165</v>
+        <v>835491.4104457163</v>
       </c>
     </row>
     <row r="4">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>814465.927270154</v>
+        <v>814465.9272701541</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>814465.9272701541</v>
+        <v>814465.927270154</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>814465.927270154</v>
+        <v>814465.9272701541</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.3273982127</v>
       </c>
       <c r="C2" t="n">
+        <v>615781.327398213</v>
+      </c>
+      <c r="D2" t="n">
         <v>615781.3273982129</v>
       </c>
-      <c r="D2" t="n">
-        <v>615781.3273982124</v>
-      </c>
       <c r="E2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="F2" t="n">
+        <v>605359.9497675045</v>
+      </c>
+      <c r="G2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="H2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="I2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="J2" t="n">
         <v>605359.9497675044</v>
       </c>
-      <c r="F2" t="n">
+      <c r="K2" t="n">
+        <v>605359.9497675045</v>
+      </c>
+      <c r="L2" t="n">
+        <v>605359.9497675045</v>
+      </c>
+      <c r="M2" t="n">
+        <v>605359.9497675045</v>
+      </c>
+      <c r="N2" t="n">
+        <v>605359.9497675047</v>
+      </c>
+      <c r="O2" t="n">
         <v>605359.9497675041</v>
       </c>
-      <c r="G2" t="n">
+      <c r="P2" t="n">
         <v>605359.9497675042</v>
-      </c>
-      <c r="H2" t="n">
-        <v>605359.9497675041</v>
-      </c>
-      <c r="I2" t="n">
-        <v>605359.9497675041</v>
-      </c>
-      <c r="J2" t="n">
-        <v>605359.9497675042</v>
-      </c>
-      <c r="K2" t="n">
-        <v>605359.9497675041</v>
-      </c>
-      <c r="L2" t="n">
-        <v>605359.9497675044</v>
-      </c>
-      <c r="M2" t="n">
-        <v>605359.9497675041</v>
-      </c>
-      <c r="N2" t="n">
-        <v>605359.9497675041</v>
-      </c>
-      <c r="O2" t="n">
-        <v>605359.9497675047</v>
-      </c>
-      <c r="P2" t="n">
-        <v>605359.9497675047</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.920889983215602e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.441624546</v>
+        <v>507485.4416245457</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289266</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,16 +26420,16 @@
         <v>134318.0002618638</v>
       </c>
       <c r="C4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="D4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618636</v>
       </c>
       <c r="E4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731975</v>
       </c>
       <c r="F4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731975</v>
       </c>
       <c r="G4" t="n">
         <v>8117.312426731974</v>
@@ -26438,7 +26438,7 @@
         <v>8117.312426731974</v>
       </c>
       <c r="I4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731936</v>
       </c>
       <c r="J4" t="n">
         <v>8117.312426731974</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984475</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-726226.2288794152</v>
+        <v>-726226.2288794157</v>
       </c>
       <c r="C6" t="n">
-        <v>388525.5546965044</v>
+        <v>388525.5546965046</v>
       </c>
       <c r="D6" t="n">
-        <v>388525.5546965039</v>
+        <v>388525.5546965041</v>
       </c>
       <c r="E6" t="n">
-        <v>-11712.71336203763</v>
+        <v>-11400.0720331163</v>
       </c>
       <c r="F6" t="n">
-        <v>495772.7282625081</v>
+        <v>496085.3695914299</v>
       </c>
       <c r="G6" t="n">
-        <v>495772.728262508</v>
+        <v>496085.3695914294</v>
       </c>
       <c r="H6" t="n">
-        <v>495772.7282625082</v>
+        <v>496085.3695914295</v>
       </c>
       <c r="I6" t="n">
-        <v>495772.7282625081</v>
+        <v>496085.3695914295</v>
       </c>
       <c r="J6" t="n">
-        <v>328167.5504525256</v>
+        <v>328480.1917814471</v>
       </c>
       <c r="K6" t="n">
-        <v>495772.7282625081</v>
+        <v>496085.3695914297</v>
       </c>
       <c r="L6" t="n">
-        <v>495772.7282625083</v>
+        <v>496085.3695914297</v>
       </c>
       <c r="M6" t="n">
-        <v>363165.4345335814</v>
+        <v>363478.0758625031</v>
       </c>
       <c r="N6" t="n">
-        <v>495772.7282625081</v>
+        <v>496085.3695914299</v>
       </c>
       <c r="O6" t="n">
-        <v>495772.7282625087</v>
+        <v>496085.3695914294</v>
       </c>
       <c r="P6" t="n">
-        <v>495772.7282625087</v>
+        <v>496085.3695914296</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175397</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,25 +26792,25 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26819,7 +26819,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.9106082241345</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996092</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>52.10215092812501</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>196.5194132119656</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27551,10 +27551,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>26.0609900693576</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>209.3963406232727</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,25 +27618,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>111.3216627523355</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>21.1059928059928</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27779,22 +27779,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27827,19 +27827,19 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>267.6622616290998</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>19.43049206570913</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>97.55960140838727</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>122.030369369589</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247041</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987943</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -28013,22 +28013,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
@@ -28067,13 +28067,13 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>85.69071192373582</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>148.4711380514614</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,34 +31372,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.755034742181061</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.4562495533618</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.7038799491901</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857145</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767384</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730007</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342228</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166598</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190647</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147053</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235313</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745102</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436497</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575841</v>
+        <v>189.8178475575842</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.428935217844</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177246</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.065366204059</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762074</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405677</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378627</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168762</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997904</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000176</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31676,46 +31676,46 @@
         <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231072</v>
+        <v>14.97566335231073</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753787</v>
+        <v>119.0856174753788</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227909</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.755972606796</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154674</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169137</v>
+        <v>203.7180217169138</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097484</v>
+        <v>141.0437987097485</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.7358189575959</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.3541376752348</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069565</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024989</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>171.7382405950807</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,22 +32080,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>334.7693860946154</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32323,13 +32323,13 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>595.3857163736978</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>549.9198891312099</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,31 +33253,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>117.9333660065831</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
         <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>255.4201198419603</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="M6" t="n">
-        <v>640.5848321000387</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>295.444411433778</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>303.0719207327581</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225039</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.564649540734</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067511</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.005010945728</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376319</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949731</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637952</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402559</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939915</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313198</v>
+        <v>379.9148430313186</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378504</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820407</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.1970995928741</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961232</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235325</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667038</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870599</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423492</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860246</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.6644876295071</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818073</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805409</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>37.76383318075048</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396415</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>200.7949786802852</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35971,13 +35971,13 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>453.2516824516795</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>407.3236446867654</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,16 +36205,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,16 +36916,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,16 +37153,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,16 +37390,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
